--- a/data/trans_dic/IP25-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP25-Habitat-trans_dic.xlsx
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>86,78%</t>
+          <t>87,44%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>90,47%</t>
+          <t>94,31%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>91,24%</t>
+          <t>88,85%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -676,17 +676,17 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>88,38%</t>
+          <t>96,86%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>90,59%</t>
+          <t>96,2%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>90,31%</t>
+          <t>88,26%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -696,17 +696,17 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>87,55%</t>
+          <t>91,88%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>90,53%</t>
+          <t>95,19%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>90,8%</t>
+          <t>88,58%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>82,69; 90,03</t>
+          <t>71,19; 96,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>86,54; 93,37</t>
+          <t>81,95; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>87,6; 93,74</t>
+          <t>72,16; 96,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>0; 9,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>84,38; 91,77</t>
+          <t>82,57; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>87,15; 93,4</t>
+          <t>78,72; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>87,13; 93,17</t>
+          <t>71,14; 97,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>0; 6,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>84,65; 89,97</t>
+          <t>83,65; 97,03</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>87,81; 92,52</t>
+          <t>87,97; 98,52</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>88,69; 92,82</t>
+          <t>76,43; 95,27</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0; 3,98</t>
         </is>
       </c>
     </row>
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,17 +936,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>86,61%</t>
+          <t>86,78%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>92,4%</t>
+          <t>90,47%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>88,45%</t>
+          <t>91,24%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -956,17 +956,17 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>92,74%</t>
+          <t>88,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>88,56%</t>
+          <t>90,59%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>86,96%</t>
+          <t>90,31%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -976,17 +976,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>89,68%</t>
+          <t>87,55%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>90,47%</t>
+          <t>90,53%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>87,7%</t>
+          <t>90,8%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>82,24; 90,19</t>
+          <t>82,69; 90,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>88,93; 94,98</t>
+          <t>86,54; 93,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>84,32; 91,48</t>
+          <t>87,6; 93,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>0; 0,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>89,15; 95,29</t>
+          <t>84,38; 91,77</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>83,83; 91,82</t>
+          <t>87,15; 93,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>82,91; 90,45</t>
+          <t>87,13; 93,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>0; 0,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>87,01; 91,87</t>
+          <t>84,65; 89,97</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>87,79; 92,69</t>
+          <t>87,81; 92,52</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>84,99; 90,24</t>
+          <t>88,69; 92,82</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0; 0,31</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,17 +1076,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>87,44%</t>
+          <t>88,28%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>94,31%</t>
+          <t>90,51%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>88,85%</t>
+          <t>94,94%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -1096,17 +1096,17 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>96,86%</t>
+          <t>88,75%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>96,2%</t>
+          <t>84,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>88,26%</t>
+          <t>93,29%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1116,17 +1116,17 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>91,88%</t>
+          <t>88,5%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>95,19%</t>
+          <t>87,61%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>88,58%</t>
+          <t>94,14%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>71,19; 96,81</t>
+          <t>83,42; 91,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>81,95; 100,0</t>
+          <t>86,08; 93,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>72,16; 96,97</t>
+          <t>91,49; 97,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>0; 0,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>82,57; 100,0</t>
+          <t>83,96; 92,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>78,72; 100,0</t>
+          <t>79,67; 88,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>71,14; 97,57</t>
+          <t>89,97; 95,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>0; 0,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>83,65; 97,03</t>
+          <t>85,41; 91,14</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>87,97; 98,52</t>
+          <t>84,44; 90,42</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>76,43; 95,27</t>
+          <t>91,74; 95,86</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>0; 0,42</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,17 +1216,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>88,28%</t>
+          <t>86,61%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>90,51%</t>
+          <t>92,4%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>94,94%</t>
+          <t>88,45%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1236,17 +1236,17 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>88,75%</t>
+          <t>92,74%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>84,52%</t>
+          <t>88,56%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>93,29%</t>
+          <t>86,96%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1256,17 +1256,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>88,5%</t>
+          <t>89,68%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>87,61%</t>
+          <t>90,47%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>94,14%</t>
+          <t>87,7%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>83,42; 91,97</t>
+          <t>82,24; 90,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>86,08; 93,59</t>
+          <t>88,93; 94,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>91,49; 97,14</t>
+          <t>84,32; 91,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,85</t>
+          <t>0; 0,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>83,96; 92,33</t>
+          <t>89,15; 95,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>79,67; 88,8</t>
+          <t>83,83; 91,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>89,97; 95,92</t>
+          <t>82,91; 90,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>0; 0,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>85,41; 91,14</t>
+          <t>87,01; 91,87</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>84,44; 90,42</t>
+          <t>87,79; 92,69</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>91,74; 95,86</t>
+          <t>84,99; 90,24</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0; 0,4</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP25-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP25-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>71,19; 96,81</t>
+          <t>68,42; 96,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>81,95; 100,0</t>
+          <t>81,87; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>72,16; 96,97</t>
+          <t>73,61; 99,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>82,57; 100,0</t>
+          <t>82,89; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>78,72; 100,0</t>
+          <t>74,58; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>71,14; 97,57</t>
+          <t>72,48; 97,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>83,65; 97,03</t>
+          <t>80,77; 96,83</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>87,97; 98,52</t>
+          <t>87,31; 98,51</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>76,43; 95,27</t>
+          <t>77,06; 95,64</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,06; 93,41</t>
+          <t>84,33; 93,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>86,12; 94,47</t>
+          <t>85,59; 94,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,46; 95,74</t>
+          <t>86,43; 95,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>84,41; 93,93</t>
+          <t>84,99; 93,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>86,48; 95,55</t>
+          <t>87,1; 95,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>84,82; 93,48</t>
+          <t>84,87; 93,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>86,62; 92,48</t>
+          <t>85,86; 92,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>87,68; 93,89</t>
+          <t>87,96; 94,16</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>87,19; 93,61</t>
+          <t>87,01; 93,52</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>82,69; 90,03</t>
+          <t>82,37; 90,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,54; 93,37</t>
+          <t>86,89; 93,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>87,6; 93,74</t>
+          <t>87,72; 93,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>84,38; 91,77</t>
+          <t>84,42; 91,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>87,15; 93,4</t>
+          <t>86,95; 93,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>87,13; 93,17</t>
+          <t>86,74; 92,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>84,65; 89,97</t>
+          <t>84,81; 90,0</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>87,81; 92,52</t>
+          <t>88,17; 92,67</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>88,69; 92,82</t>
+          <t>88,63; 92,83</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,42; 91,97</t>
+          <t>83,87; 92,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>86,08; 93,59</t>
+          <t>86,22; 94,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>91,49; 97,14</t>
+          <t>91,49; 97,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>83,96; 92,33</t>
+          <t>83,84; 92,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>79,67; 88,8</t>
+          <t>79,56; 88,66</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>89,97; 95,92</t>
+          <t>89,94; 95,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>85,41; 91,14</t>
+          <t>85,42; 91,01</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>84,44; 90,42</t>
+          <t>83,97; 90,18</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>91,74; 95,86</t>
+          <t>92,18; 95,95</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>82,24; 90,19</t>
+          <t>82,38; 90,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>88,93; 94,98</t>
+          <t>88,83; 95,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>84,32; 91,48</t>
+          <t>84,64; 91,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>89,15; 95,29</t>
+          <t>88,99; 95,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>83,83; 91,82</t>
+          <t>84,66; 91,9</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>82,91; 90,45</t>
+          <t>83,27; 90,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>87,01; 91,87</t>
+          <t>87,04; 91,95</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>87,79; 92,69</t>
+          <t>88,25; 92,89</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>84,99; 90,24</t>
+          <t>85,17; 90,36</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>85,44; 89,42</t>
+          <t>85,48; 89,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>89,46; 92,82</t>
+          <t>89,35; 92,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>89,59; 92,99</t>
+          <t>89,47; 92,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>88,22; 91,98</t>
+          <t>88,41; 92,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>87,15; 90,9</t>
+          <t>86,99; 90,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>88,05; 91,54</t>
+          <t>87,94; 91,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,22 +1464,29 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>87,56; 90,14</t>
+          <t>87,5; 90,14</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>88,85; 91,43</t>
+          <t>88,83; 91,38</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>89,26; 91,8</t>
+          <t>89,31; 91,84</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
           <t>0; 0,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP25-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP25-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>68,42; 96,74</t>
+          <t>69,07; 96,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>81,87; 100,0</t>
+          <t>81,62; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>73,61; 99,55</t>
+          <t>71,64; 97,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>82,89; 100,0</t>
+          <t>82,51; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>74,58; 100,0</t>
+          <t>80,58; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>72,48; 97,5</t>
+          <t>67,76; 97,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>80,77; 96,83</t>
+          <t>83,7; 96,78</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>87,31; 98,51</t>
+          <t>86,76; 98,52</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>77,06; 95,64</t>
+          <t>77,96; 95,52</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,33; 93,41</t>
+          <t>84,08; 93,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>85,59; 94,65</t>
+          <t>85,91; 94,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,43; 95,41</t>
+          <t>86,79; 95,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>84,99; 93,58</t>
+          <t>84,49; 93,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>87,1; 95,61</t>
+          <t>87,25; 95,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>84,87; 93,73</t>
+          <t>84,41; 93,87</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>85,86; 92,31</t>
+          <t>85,98; 92,29</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>87,96; 94,16</t>
+          <t>88,11; 93,95</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>87,01; 93,52</t>
+          <t>87,51; 93,41</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>82,37; 90,29</t>
+          <t>82,78; 90,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,89; 93,4</t>
+          <t>86,63; 93,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>87,72; 93,66</t>
+          <t>87,91; 93,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>84,42; 91,72</t>
+          <t>84,56; 91,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>86,95; 93,39</t>
+          <t>87,18; 93,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>86,74; 92,96</t>
+          <t>86,69; 92,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>84,81; 90,0</t>
+          <t>84,81; 90,18</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>88,17; 92,67</t>
+          <t>88,17; 92,53</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>88,63; 92,83</t>
+          <t>88,55; 92,69</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,87; 92,17</t>
+          <t>83,66; 92,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>86,22; 94,11</t>
+          <t>86,15; 93,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>91,49; 97,2</t>
+          <t>91,48; 97,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>83,84; 92,47</t>
+          <t>84,63; 92,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>79,56; 88,66</t>
+          <t>79,59; 88,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>89,94; 95,83</t>
+          <t>90,08; 95,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>85,42; 91,01</t>
+          <t>85,29; 91,13</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>83,97; 90,18</t>
+          <t>84,34; 90,05</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>92,18; 95,95</t>
+          <t>92,0; 95,95</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>82,38; 90,11</t>
+          <t>82,59; 90,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>88,83; 95,12</t>
+          <t>88,91; 94,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>84,64; 91,76</t>
+          <t>84,8; 91,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>88,99; 95,39</t>
+          <t>88,93; 95,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>84,66; 91,9</t>
+          <t>84,5; 91,99</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>83,27; 90,58</t>
+          <t>82,29; 90,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>87,04; 91,95</t>
+          <t>86,84; 92,0</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>88,25; 92,89</t>
+          <t>87,89; 92,74</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>85,17; 90,36</t>
+          <t>84,93; 90,28</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>85,48; 89,42</t>
+          <t>85,42; 89,41</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>89,35; 92,79</t>
+          <t>89,42; 92,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>89,47; 92,81</t>
+          <t>89,6; 92,85</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>88,41; 92,04</t>
+          <t>88,42; 92,07</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>86,99; 90,73</t>
+          <t>87,0; 90,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>87,94; 91,53</t>
+          <t>87,8; 91,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>87,5; 90,14</t>
+          <t>87,56; 90,27</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>88,83; 91,38</t>
+          <t>88,89; 91,53</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>89,31; 91,84</t>
+          <t>89,28; 91,67</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">

--- a/data/trans_dic/IP25-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP25-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>87,44%</t>
+          <t>90,94%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>94,31%</t>
+          <t>92,74%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>88,85%</t>
+          <t>89,5%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -676,17 +676,17 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>96,86%</t>
+          <t>89,12%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>96,2%</t>
+          <t>91,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>88,26%</t>
+          <t>91,37%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -696,17 +696,17 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>91,88%</t>
+          <t>89,99%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>95,19%</t>
+          <t>92,16%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>88,58%</t>
+          <t>90,48%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>69,07; 96,74</t>
+          <t>86,42; 94,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>81,62; 100,0</t>
+          <t>88,01; 95,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>71,64; 97,04</t>
+          <t>84,46; 92,97</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>0; 0,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>82,51; 100,0</t>
+          <t>83,86; 92,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>80,58; 100,0</t>
+          <t>87,58; 94,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>67,76; 97,47</t>
+          <t>86,74; 94,71</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>0; 1,12</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>83,7; 96,78</t>
+          <t>86,8; 92,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>86,76; 98,52</t>
+          <t>89,19; 94,58</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>77,96; 95,52</t>
+          <t>87,12; 93,35</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>0; 0,52</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,17 +796,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>89,46%</t>
+          <t>88,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>91,11%</t>
+          <t>90,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>91,9%</t>
+          <t>90,31%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -816,17 +816,17 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>89,78%</t>
+          <t>86,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>92,08%</t>
+          <t>90,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>89,75%</t>
+          <t>91,24%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -836,17 +836,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>89,61%</t>
+          <t>87,55%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>91,57%</t>
+          <t>90,53%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>90,87%</t>
+          <t>90,8%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,08; 93,15</t>
+          <t>84,38; 91,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>85,91; 94,8</t>
+          <t>87,15; 93,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>86,79; 95,37</t>
+          <t>87,13; 93,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>0; 0,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>84,49; 93,75</t>
+          <t>82,69; 90,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>87,25; 95,73</t>
+          <t>86,54; 93,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>84,41; 93,87</t>
+          <t>87,6; 93,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>0; 0,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>85,98; 92,29</t>
+          <t>84,65; 89,97</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>88,11; 93,95</t>
+          <t>87,81; 92,52</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>87,51; 93,41</t>
+          <t>88,69; 92,82</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>0; 0,31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,17 +936,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>86,78%</t>
+          <t>88,75%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>90,47%</t>
+          <t>84,52%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>91,24%</t>
+          <t>93,29%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -956,17 +956,17 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>88,38%</t>
+          <t>88,28%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>90,59%</t>
+          <t>90,51%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>90,31%</t>
+          <t>94,94%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -976,17 +976,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>87,55%</t>
+          <t>88,5%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>90,53%</t>
+          <t>87,61%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>90,8%</t>
+          <t>94,14%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>82,78; 90,24</t>
+          <t>83,96; 92,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,63; 93,62</t>
+          <t>79,67; 88,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>87,91; 93,68</t>
+          <t>89,97; 95,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>0; 0,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>84,56; 91,34</t>
+          <t>83,42; 91,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>87,18; 93,37</t>
+          <t>86,08; 93,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>86,69; 92,97</t>
+          <t>91,49; 97,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>0; 0,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>84,81; 90,18</t>
+          <t>85,41; 91,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>88,17; 92,53</t>
+          <t>84,44; 90,42</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>88,55; 92,69</t>
+          <t>91,74; 95,86</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>0; 0,42</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,17 +1076,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>88,28%</t>
+          <t>92,74%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>90,51%</t>
+          <t>88,56%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>94,94%</t>
+          <t>86,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -1096,17 +1096,17 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>88,75%</t>
+          <t>86,61%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>84,52%</t>
+          <t>92,4%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>93,29%</t>
+          <t>88,45%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1116,17 +1116,17 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>88,5%</t>
+          <t>89,68%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>87,61%</t>
+          <t>90,47%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>94,14%</t>
+          <t>87,7%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>83,66; 92,1</t>
+          <t>89,15; 95,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>86,15; 93,71</t>
+          <t>83,83; 91,82</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>91,48; 97,12</t>
+          <t>82,91; 90,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,85</t>
+          <t>0; 0,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>84,63; 92,48</t>
+          <t>82,24; 90,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>79,59; 88,58</t>
+          <t>88,93; 94,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>90,08; 95,95</t>
+          <t>84,32; 91,48</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>0; 0,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>85,29; 91,13</t>
+          <t>87,01; 91,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>84,34; 90,05</t>
+          <t>87,79; 92,69</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>92,0; 95,95</t>
+          <t>84,99; 90,24</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>0; 0,4</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,17 +1216,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>86,61%</t>
+          <t>90,31%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>92,4%</t>
+          <t>89,08%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>88,45%</t>
+          <t>89,83%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1236,17 +1236,17 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>92,74%</t>
+          <t>87,54%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>88,56%</t>
+          <t>91,25%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>86,96%</t>
+          <t>91,32%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1256,17 +1256,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>89,68%</t>
+          <t>88,88%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>90,47%</t>
+          <t>90,2%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>87,7%</t>
+          <t>90,6%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>82,59; 90,21</t>
+          <t>88,22; 91,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>88,91; 94,97</t>
+          <t>87,15; 90,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>84,8; 91,84</t>
+          <t>88,05; 91,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>88,93; 95,3</t>
+          <t>85,44; 89,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>84,5; 91,99</t>
+          <t>89,46; 92,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>82,29; 90,27</t>
+          <t>89,59; 92,99</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>0; 0,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>86,84; 92,0</t>
+          <t>87,56; 90,14</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>87,89; 92,74</t>
+          <t>88,85; 91,43</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>84,93; 90,28</t>
+          <t>89,26; 91,8</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>0; 0,1</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>87,54%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>91,25%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>91,32%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>90,31%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>89,08%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>89,83%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>88,88%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>90,2%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>90,6%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>85,42; 89,41</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>89,42; 92,96</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>89,6; 92,85</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>88,42; 92,07</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>87,0; 90,79</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>87,8; 91,44</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>87,56; 90,27</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>88,89; 91,53</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>89,28; 91,67</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
